--- a/aula-formatacao.xlsx
+++ b/aula-formatacao.xlsx
@@ -1,24 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\02 Primeiros passos sobre planilha eletrônica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\wokspaces\start\ExcelAvançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB79CAA4-900B-4E82-86B3-1D779A2DEAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Situação inicial" sheetId="1" r:id="rId1"/>
     <sheet name="Resultado final" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -81,9 +93,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;* #,##0.00_-;\-&quot;R$&quot;* #,##0.00_-;_-&quot;R$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -227,7 +239,7 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -242,7 +254,7 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,31 +557,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="48.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
         <v>0</v>
       </c>
@@ -580,7 +594,7 @@
       <c r="G2" s="19"/>
       <c r="H2" s="19"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
@@ -603,7 +617,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -626,7 +640,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
@@ -649,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -672,7 +686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -695,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E11" s="6"/>
     </row>
   </sheetData>
@@ -708,25 +722,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:H11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.42578125" style="1" customWidth="1"/>
-    <col min="6" max="8" width="14.7109375" style="1" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.453125" style="1" customWidth="1"/>
+    <col min="6" max="8" width="14.7265625" style="1" customWidth="1"/>
+    <col min="9" max="11" width="9.1796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" s="5" customFormat="1" ht="32.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:8" s="5" customFormat="1" ht="32.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
@@ -737,7 +753,7 @@
       <c r="G2" s="21"/>
       <c r="H2" s="22"/>
     </row>
-    <row r="4" spans="2:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>15</v>
       </c>
@@ -760,7 +776,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -783,7 +799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>3</v>
       </c>
@@ -806,7 +822,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>5</v>
       </c>
@@ -829,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
@@ -852,7 +868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E11" s="6"/>
     </row>
   </sheetData>
